--- a/raw.xlsx
+++ b/raw.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huang\Desktop\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2380" windowWidth="34220" windowHeight="18100" tabRatio="500"/>
+    <workbookView xWindow="1680" yWindow="2385" windowWidth="34215" windowHeight="18105" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="拍摄总表" sheetId="11" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">外景!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">职业照!$A$1:$L$42</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -757,6 +762,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>10寸轻相册一本</t>
@@ -765,6 +771,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1022,6 +1029,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2020</t>
@@ -1030,6 +1038,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1038,6 +1047,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1.1  10:00:00</t>
@@ -1839,6 +1849,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>10</t>
@@ -1848,6 +1859,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>寸轻相册</t>
@@ -1857,7 +1869,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Hiragino Sans GB"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1866,6 +1878,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一本</t>
@@ -1875,7 +1888,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Hiragino Sans GB"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 
 24</t>
@@ -1885,6 +1898,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>寸油画框</t>
@@ -1894,7 +1908,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Hiragino Sans GB"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1903,6 +1917,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一个
@@ -2503,14 +2518,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="180" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="184" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2795,14 +2810,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Hiragino Sans GB"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2810,6 +2819,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3490,13 +3512,13 @@
     <xf numFmtId="22" fontId="24" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3505,25 +3527,25 @@
     <xf numFmtId="0" fontId="24" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3553,33 +3575,33 @@
     <xf numFmtId="22" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="41" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="41" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="41" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="41" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="41" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="41" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="41" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="41" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="41" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="41" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3594,25 +3616,25 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="41" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="41" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="41" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3621,37 +3643,37 @@
     <xf numFmtId="0" fontId="41" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="41" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="41" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="41" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="43" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="43" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="43" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="43" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="43" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="43" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="43" fillId="29" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3666,29 +3688,29 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3703,16 +3725,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -3758,38 +3780,38 @@
     <xf numFmtId="0" fontId="24" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="32" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="32" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3822,22 +3844,73 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="24" fillId="30" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="32" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3849,10 +3922,10 @@
     <xf numFmtId="0" fontId="40" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="40" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="40" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="40" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3861,28 +3934,16 @@
     <xf numFmtId="0" fontId="40" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="42" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="42" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="42" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="42" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="42" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3906,75 +3967,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="24" fillId="30" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="24" fillId="32" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4502,71 +4527,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
+      <selection pane="bottomRight" activeCell="AV73" sqref="AV73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="61" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="67" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="68" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="69" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="69" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="69" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="69" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="69" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="69" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="69" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="61" customWidth="1"/>
+    <col min="2" max="3" width="10.125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="68" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="69" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="70" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="69" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="69" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="69" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="69" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="69" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="69" customWidth="1"/>
     <col min="14" max="17" width="16" style="69" customWidth="1"/>
     <col min="18" max="18" width="11" style="71" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="72" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="61" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="73" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="61" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="74" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="75" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" style="75" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="75" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" style="75" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="61" customWidth="1"/>
+    <col min="19" max="19" width="7.25" style="72" customWidth="1"/>
+    <col min="20" max="20" width="13.75" style="61" customWidth="1"/>
+    <col min="21" max="21" width="13.75" style="73" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="61" customWidth="1"/>
+    <col min="23" max="23" width="12.75" style="74" customWidth="1"/>
+    <col min="24" max="25" width="14.75" style="75" customWidth="1"/>
+    <col min="26" max="26" width="16.75" style="75" customWidth="1"/>
+    <col min="27" max="27" width="11.75" style="75" customWidth="1"/>
+    <col min="28" max="28" width="13.875" style="75" customWidth="1"/>
+    <col min="29" max="29" width="14.75" style="61" customWidth="1"/>
     <col min="30" max="31" width="9" style="61" customWidth="1"/>
-    <col min="32" max="32" width="13.140625" style="61" customWidth="1"/>
-    <col min="33" max="33" width="11.140625" style="61" customWidth="1"/>
+    <col min="32" max="32" width="13.125" style="61" customWidth="1"/>
+    <col min="33" max="33" width="11.125" style="61" customWidth="1"/>
     <col min="34" max="35" width="9" style="61" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" style="61" customWidth="1"/>
-    <col min="37" max="37" width="16.140625" style="61" customWidth="1"/>
+    <col min="36" max="36" width="14.75" style="61" customWidth="1"/>
+    <col min="37" max="37" width="16.125" style="61" customWidth="1"/>
     <col min="38" max="38" width="40" style="61" customWidth="1"/>
-    <col min="39" max="39" width="15.7109375" style="61" customWidth="1"/>
+    <col min="39" max="39" width="15.75" style="61" customWidth="1"/>
     <col min="40" max="40" width="11" style="76" customWidth="1"/>
-    <col min="41" max="41" width="9" style="77" customWidth="1"/>
-    <col min="42" max="42" width="9" style="77" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" style="77" customWidth="1"/>
-    <col min="44" max="44" width="9" style="77" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="17.85546875" style="77" customWidth="1"/>
-    <col min="46" max="46" width="9" style="77" hidden="1" customWidth="1"/>
+    <col min="41" max="42" width="9" style="77" customWidth="1"/>
+    <col min="43" max="43" width="13.125" style="77" customWidth="1"/>
+    <col min="44" max="44" width="9" style="77" customWidth="1"/>
+    <col min="45" max="45" width="17.875" style="77" customWidth="1"/>
+    <col min="46" max="46" width="9" style="77" customWidth="1"/>
     <col min="47" max="47" width="12" style="76" customWidth="1"/>
     <col min="48" max="48" width="11" style="78" customWidth="1"/>
-    <col min="49" max="49" width="9.85546875" style="77" customWidth="1"/>
-    <col min="50" max="50" width="15.7109375" style="78" customWidth="1"/>
-    <col min="51" max="52" width="15.7109375" style="72" customWidth="1"/>
+    <col min="49" max="49" width="9.875" style="77" customWidth="1"/>
+    <col min="50" max="50" width="15.75" style="78" customWidth="1"/>
+    <col min="51" max="52" width="15.75" style="72" customWidth="1"/>
     <col min="53" max="54" width="11" style="79" customWidth="1"/>
     <col min="55" max="55" width="11" style="80" customWidth="1"/>
     <col min="56" max="57" width="11" style="79" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" style="71" customWidth="1"/>
-    <col min="59" max="59" width="11.7109375" style="72" customWidth="1"/>
-    <col min="60" max="60" width="12.28515625" style="61" customWidth="1"/>
-    <col min="61" max="61" width="13.42578125" style="61" customWidth="1"/>
+    <col min="58" max="58" width="13.125" style="71" customWidth="1"/>
+    <col min="59" max="59" width="11.75" style="72" customWidth="1"/>
+    <col min="60" max="60" width="12.25" style="61" customWidth="1"/>
+    <col min="61" max="61" width="13.375" style="61" customWidth="1"/>
     <col min="62" max="62" width="9" style="81"/>
-    <col min="63" max="63" width="11.140625" style="82" customWidth="1"/>
-    <col min="64" max="64" width="13.140625" style="83" customWidth="1"/>
+    <col min="63" max="63" width="11.125" style="82" customWidth="1"/>
+    <col min="64" max="64" width="13.125" style="83" customWidth="1"/>
     <col min="65" max="65" width="9" style="83"/>
     <col min="66" max="257" width="9" style="61"/>
     <col min="258" max="16384" width="9" style="66"/>
@@ -4576,86 +4601,86 @@
       <c r="A1" s="84"/>
       <c r="B1" s="84"/>
       <c r="C1" s="85"/>
-      <c r="D1" s="193" t="s">
+      <c r="D1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="196" t="s">
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="196"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="198" t="s">
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="199" t="s">
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="215"/>
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="199"/>
-      <c r="AE1" s="199"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="199"/>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="199"/>
-      <c r="AJ1" s="199"/>
-      <c r="AK1" s="199"/>
-      <c r="AL1" s="199"/>
-      <c r="AM1" s="199"/>
-      <c r="AN1" s="200" t="s">
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="216"/>
+      <c r="AJ1" s="216"/>
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
+      <c r="AM1" s="216"/>
+      <c r="AN1" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="AO1" s="200"/>
-      <c r="AP1" s="200"/>
-      <c r="AQ1" s="200"/>
-      <c r="AR1" s="200"/>
-      <c r="AS1" s="200"/>
-      <c r="AT1" s="200"/>
-      <c r="AU1" s="200"/>
-      <c r="AV1" s="200"/>
-      <c r="AW1" s="200"/>
-      <c r="AX1" s="200"/>
-      <c r="AY1" s="201" t="s">
+      <c r="AO1" s="217"/>
+      <c r="AP1" s="217"/>
+      <c r="AQ1" s="217"/>
+      <c r="AR1" s="217"/>
+      <c r="AS1" s="217"/>
+      <c r="AT1" s="217"/>
+      <c r="AU1" s="217"/>
+      <c r="AV1" s="217"/>
+      <c r="AW1" s="217"/>
+      <c r="AX1" s="217"/>
+      <c r="AY1" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="AZ1" s="201"/>
-      <c r="BA1" s="202" t="s">
+      <c r="AZ1" s="206"/>
+      <c r="BA1" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="202"/>
-      <c r="BC1" s="202"/>
-      <c r="BD1" s="202"/>
-      <c r="BE1" s="202"/>
-      <c r="BF1" s="203" t="s">
+      <c r="BB1" s="207"/>
+      <c r="BC1" s="207"/>
+      <c r="BD1" s="207"/>
+      <c r="BE1" s="207"/>
+      <c r="BF1" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="BG1" s="203"/>
-      <c r="BH1" s="203"/>
-      <c r="BI1" s="203"/>
-      <c r="BJ1" s="204" t="s">
+      <c r="BG1" s="208"/>
+      <c r="BH1" s="208"/>
+      <c r="BI1" s="208"/>
+      <c r="BJ1" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="BK1" s="204"/>
-      <c r="BL1" s="204"/>
-      <c r="BM1" s="204"/>
+      <c r="BK1" s="209"/>
+      <c r="BL1" s="209"/>
+      <c r="BM1" s="209"/>
     </row>
     <row r="2" spans="1:257" s="65" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="65" t="s">
@@ -4967,7 +4992,7 @@
       <c r="FU2" s="131"/>
       <c r="FV2" s="131"/>
     </row>
-    <row r="3" spans="1:257" ht="17">
+    <row r="3" spans="1:257" hidden="1">
       <c r="A3" s="89"/>
       <c r="B3" s="61" t="s">
         <v>61</v>
@@ -5262,7 +5287,7 @@
       <c r="IV3" s="91"/>
       <c r="IW3" s="91"/>
     </row>
-    <row r="4" spans="1:257" ht="17">
+    <row r="4" spans="1:257" hidden="1">
       <c r="A4"/>
       <c r="B4" s="61" t="s">
         <v>61</v>
@@ -5462,7 +5487,7 @@
       <c r="FQ4" s="66"/>
       <c r="FR4" s="66"/>
     </row>
-    <row r="5" spans="1:257" ht="17">
+    <row r="5" spans="1:257" hidden="1">
       <c r="A5" s="91"/>
       <c r="B5" s="61" t="s">
         <v>61</v>
@@ -5669,7 +5694,7 @@
       <c r="FQ5" s="66"/>
       <c r="FR5" s="66"/>
     </row>
-    <row r="6" spans="1:257" ht="17">
+    <row r="6" spans="1:257" hidden="1">
       <c r="A6" s="91"/>
       <c r="B6" s="61" t="s">
         <v>61</v>
@@ -5859,7 +5884,7 @@
       <c r="FQ6" s="66"/>
       <c r="FR6" s="66"/>
     </row>
-    <row r="7" spans="1:257" ht="17">
+    <row r="7" spans="1:257" hidden="1">
       <c r="A7" s="89"/>
       <c r="B7" s="61" t="s">
         <v>61</v>
@@ -6140,7 +6165,7 @@
       <c r="IV7" s="89"/>
       <c r="IW7" s="89"/>
     </row>
-    <row r="8" spans="1:257" ht="17">
+    <row r="8" spans="1:257">
       <c r="A8" s="144"/>
       <c r="B8" s="61" t="s">
         <v>62</v>
@@ -6428,7 +6453,7 @@
       <c r="IV8" s="91"/>
       <c r="IW8" s="91"/>
     </row>
-    <row r="9" spans="1:257" ht="17">
+    <row r="9" spans="1:257">
       <c r="A9" s="143"/>
       <c r="B9" s="61" t="s">
         <v>62</v>
@@ -6719,7 +6744,7 @@
       <c r="IV9" s="91"/>
       <c r="IW9" s="91"/>
     </row>
-    <row r="10" spans="1:257" ht="17">
+    <row r="10" spans="1:257" hidden="1">
       <c r="A10" s="103" t="s">
         <v>340</v>
       </c>
@@ -6992,7 +7017,7 @@
       <c r="IV10" s="91"/>
       <c r="IW10" s="91"/>
     </row>
-    <row r="11" spans="1:257" ht="17">
+    <row r="11" spans="1:257" hidden="1">
       <c r="A11" s="91"/>
       <c r="B11" s="61" t="s">
         <v>62</v>
@@ -7265,7 +7290,7 @@
       <c r="IV11" s="89"/>
       <c r="IW11" s="89"/>
     </row>
-    <row r="12" spans="1:257" ht="17">
+    <row r="12" spans="1:257">
       <c r="A12" s="89"/>
       <c r="B12" s="61" t="s">
         <v>62</v>
@@ -7467,7 +7492,7 @@
       <c r="FQ12" s="91"/>
       <c r="FR12" s="91"/>
     </row>
-    <row r="13" spans="1:257" ht="17">
+    <row r="13" spans="1:257" hidden="1">
       <c r="A13" s="90"/>
       <c r="B13" s="61" t="s">
         <v>62</v>
@@ -7693,7 +7718,7 @@
       <c r="FQ13"/>
       <c r="FR13"/>
     </row>
-    <row r="14" spans="1:257" ht="17">
+    <row r="14" spans="1:257" ht="66" hidden="1">
       <c r="A14" s="184"/>
       <c r="B14" s="136" t="s">
         <v>120</v>
@@ -7915,7 +7940,7 @@
       <c r="FQ14" s="91"/>
       <c r="FR14" s="91"/>
     </row>
-    <row r="15" spans="1:257" ht="17">
+    <row r="15" spans="1:257" ht="66" hidden="1">
       <c r="A15" s="136" t="s">
         <v>213</v>
       </c>
@@ -8157,7 +8182,7 @@
       <c r="FQ15"/>
       <c r="FR15"/>
     </row>
-    <row r="16" spans="1:257" ht="17">
+    <row r="16" spans="1:257" ht="148.5" hidden="1">
       <c r="A16" s="184"/>
       <c r="B16" s="136" t="s">
         <v>120</v>
@@ -8462,7 +8487,7 @@
       <c r="IV16" s="91"/>
       <c r="IW16" s="91"/>
     </row>
-    <row r="17" spans="1:257" ht="17">
+    <row r="17" spans="1:257" ht="49.5" hidden="1">
       <c r="A17" s="184"/>
       <c r="B17" s="136" t="s">
         <v>120</v>
@@ -8684,96 +8709,96 @@
       <c r="FQ17" s="91"/>
       <c r="FR17" s="91"/>
     </row>
-    <row r="18" spans="1:257" ht="17">
-      <c r="A18" s="222" t="s">
+    <row r="18" spans="1:257" ht="33">
+      <c r="A18" s="193" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="193" t="s">
         <v>120</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="223" t="s">
+      <c r="D18" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="224" t="s">
+      <c r="E18" s="195" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="225">
+      <c r="F18" s="196">
         <v>13524455895</v>
       </c>
-      <c r="G18" s="226" t="s">
+      <c r="G18" s="197" t="s">
         <v>235</v>
       </c>
-      <c r="H18" s="225" t="s">
+      <c r="H18" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="I18" s="225" t="s">
+      <c r="I18" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="225" t="s">
+      <c r="J18" s="196" t="s">
         <v>236</v>
       </c>
-      <c r="K18" s="225" t="s">
+      <c r="K18" s="196" t="s">
         <v>237</v>
       </c>
-      <c r="L18" s="225" t="s">
+      <c r="L18" s="196" t="s">
         <v>238</v>
       </c>
-      <c r="M18" s="225" t="s">
+      <c r="M18" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="N18" s="225" t="s">
+      <c r="N18" s="196" t="s">
         <v>145</v>
       </c>
-      <c r="O18" s="225" t="s">
+      <c r="O18" s="196" t="s">
         <v>240</v>
       </c>
-      <c r="P18" s="225" t="s">
+      <c r="P18" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="Q18" s="225" t="s">
+      <c r="Q18" s="196" t="s">
         <v>241</v>
       </c>
       <c r="R18" s="174">
         <v>43817</v>
       </c>
-      <c r="S18" s="227">
+      <c r="S18" s="198">
         <v>500</v>
       </c>
-      <c r="T18" s="222" t="s">
+      <c r="T18" s="193" t="s">
         <v>90</v>
       </c>
-      <c r="U18" s="222">
+      <c r="U18" s="193">
         <v>4480</v>
       </c>
-      <c r="V18" s="222">
+      <c r="V18" s="193">
         <v>3980</v>
       </c>
-      <c r="W18" s="228" t="s">
+      <c r="W18" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="X18" s="229"/>
-      <c r="Y18" s="229" t="s">
+      <c r="X18" s="200"/>
+      <c r="Y18" s="200" t="s">
         <v>242</v>
       </c>
-      <c r="Z18" s="229"/>
-      <c r="AA18" s="229" t="s">
+      <c r="Z18" s="200"/>
+      <c r="AA18" s="200" t="s">
         <v>120</v>
       </c>
-      <c r="AB18" s="229" t="s">
+      <c r="AB18" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="AC18" s="230"/>
+      <c r="AC18" s="201"/>
       <c r="AF18" s="107"/>
-      <c r="AG18" s="230"/>
-      <c r="AH18" s="230"/>
-      <c r="AI18" s="230"/>
-      <c r="AJ18" s="230"/>
-      <c r="AK18" s="230"/>
-      <c r="AL18" s="230"/>
-      <c r="AM18" s="230"/>
+      <c r="AG18" s="201"/>
+      <c r="AH18" s="201"/>
+      <c r="AI18" s="201"/>
+      <c r="AJ18" s="201"/>
+      <c r="AK18" s="201"/>
+      <c r="AL18" s="201"/>
+      <c r="AM18" s="201"/>
       <c r="AN18" s="176">
         <v>43821</v>
       </c>
@@ -8803,27 +8828,27 @@
       </c>
       <c r="AY18" s="91"/>
       <c r="AZ18" s="91"/>
-      <c r="BA18" s="230"/>
-      <c r="BB18" s="231"/>
-      <c r="BC18" s="230"/>
-      <c r="BD18" s="230"/>
-      <c r="BE18" s="230"/>
-      <c r="BF18" s="232">
+      <c r="BA18" s="201"/>
+      <c r="BB18" s="202"/>
+      <c r="BC18" s="201"/>
+      <c r="BD18" s="201"/>
+      <c r="BE18" s="201"/>
+      <c r="BF18" s="203">
         <v>43825</v>
       </c>
       <c r="BG18" s="171">
         <v>1500</v>
       </c>
-      <c r="BH18" s="233" t="s">
+      <c r="BH18" s="204" t="s">
         <v>98</v>
       </c>
       <c r="BI18" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="BJ18" s="231"/>
-      <c r="BK18" s="230"/>
-      <c r="BL18" s="230"/>
-      <c r="BM18" s="230"/>
+      <c r="BJ18" s="202"/>
+      <c r="BK18" s="201"/>
+      <c r="BL18" s="201"/>
+      <c r="BM18" s="201"/>
       <c r="BN18" s="145"/>
       <c r="BO18" s="145"/>
       <c r="BP18" s="145"/>
@@ -8934,7 +8959,7 @@
       <c r="FQ18" s="145"/>
       <c r="FR18" s="145"/>
     </row>
-    <row r="19" spans="1:257" ht="17">
+    <row r="19" spans="1:257" ht="33" hidden="1">
       <c r="A19" s="136" t="s">
         <v>213</v>
       </c>
@@ -9164,7 +9189,7 @@
       <c r="FQ19" s="91"/>
       <c r="FR19" s="91"/>
     </row>
-    <row r="20" spans="1:257" ht="17">
+    <row r="20" spans="1:257" ht="66" hidden="1">
       <c r="A20" s="136" t="s">
         <v>213</v>
       </c>
@@ -9471,7 +9496,7 @@
       <c r="IV20" s="91"/>
       <c r="IW20" s="91"/>
     </row>
-    <row r="21" spans="1:257" ht="34" customHeight="1">
+    <row r="21" spans="1:257" ht="33.950000000000003" hidden="1" customHeight="1">
       <c r="A21" s="136"/>
       <c r="B21" s="136" t="s">
         <v>120</v>
@@ -9693,7 +9718,7 @@
       <c r="FQ21" s="91"/>
       <c r="FR21" s="91"/>
     </row>
-    <row r="22" spans="1:257" ht="17">
+    <row r="22" spans="1:257" ht="66">
       <c r="A22" s="136" t="s">
         <v>213</v>
       </c>
@@ -9937,7 +9962,7 @@
       <c r="FQ22"/>
       <c r="FR22"/>
     </row>
-    <row r="23" spans="1:257" ht="78" customHeight="1">
+    <row r="23" spans="1:257" ht="78" hidden="1" customHeight="1">
       <c r="A23" s="155" t="s">
         <v>213</v>
       </c>
@@ -10264,7 +10289,7 @@
       <c r="IV23" s="89"/>
       <c r="IW23" s="89"/>
     </row>
-    <row r="24" spans="1:257" ht="17">
+    <row r="24" spans="1:257" ht="115.5" hidden="1">
       <c r="A24" s="136"/>
       <c r="B24" s="136" t="s">
         <v>120</v>
@@ -10572,7 +10597,7 @@
       <c r="IV24" s="91"/>
       <c r="IW24" s="91"/>
     </row>
-    <row r="25" spans="1:257" ht="17">
+    <row r="25" spans="1:257" ht="66" hidden="1">
       <c r="A25" s="136" t="s">
         <v>213</v>
       </c>
@@ -10797,7 +10822,7 @@
       <c r="FQ25" s="90"/>
       <c r="FR25" s="90"/>
     </row>
-    <row r="26" spans="1:257" ht="17">
+    <row r="26" spans="1:257" ht="115.5" hidden="1">
       <c r="A26" s="136"/>
       <c r="B26" s="136" t="s">
         <v>120</v>
@@ -11022,7 +11047,7 @@
       <c r="FQ26"/>
       <c r="FR26"/>
     </row>
-    <row r="27" spans="1:257" ht="17">
+    <row r="27" spans="1:257" ht="33" hidden="1">
       <c r="A27" s="136" t="s">
         <v>213</v>
       </c>
@@ -11270,7 +11295,7 @@
       <c r="FQ27" s="143"/>
       <c r="FR27" s="143"/>
     </row>
-    <row r="28" spans="1:257" ht="17">
+    <row r="28" spans="1:257" ht="66">
       <c r="A28" s="136" t="s">
         <v>213</v>
       </c>
@@ -11514,7 +11539,7 @@
       <c r="FQ28" s="145"/>
       <c r="FR28" s="145"/>
     </row>
-    <row r="29" spans="1:257" ht="17">
+    <row r="29" spans="1:257" ht="66" hidden="1">
       <c r="A29" s="136" t="s">
         <v>213</v>
       </c>
@@ -11823,7 +11848,7 @@
       <c r="IV29" s="91"/>
       <c r="IW29" s="91"/>
     </row>
-    <row r="30" spans="1:257" ht="17">
+    <row r="30" spans="1:257" ht="66" hidden="1">
       <c r="A30" s="136"/>
       <c r="B30" s="136" t="s">
         <v>120</v>
@@ -12049,7 +12074,7 @@
       <c r="FQ30" s="91"/>
       <c r="FR30" s="91"/>
     </row>
-    <row r="31" spans="1:257" ht="60">
+    <row r="31" spans="1:257" ht="33">
       <c r="A31" s="136" t="s">
         <v>213</v>
       </c>
@@ -12297,7 +12322,7 @@
       <c r="FQ31" s="145"/>
       <c r="FR31" s="145"/>
     </row>
-    <row r="32" spans="1:257" ht="120">
+    <row r="32" spans="1:257" ht="66" hidden="1">
       <c r="A32" s="136" t="s">
         <v>213</v>
       </c>
@@ -12524,7 +12549,7 @@
       <c r="FQ32" s="90"/>
       <c r="FR32" s="90"/>
     </row>
-    <row r="33" spans="1:257" ht="45">
+    <row r="33" spans="1:257" ht="82.5" hidden="1">
       <c r="A33" s="136" t="s">
         <v>213</v>
       </c>
@@ -12834,7 +12859,7 @@
       <c r="IV33" s="91"/>
       <c r="IW33" s="91"/>
     </row>
-    <row r="34" spans="1:257" ht="30">
+    <row r="34" spans="1:257" ht="49.5" hidden="1">
       <c r="A34" s="136" t="s">
         <v>213</v>
       </c>
@@ -13078,7 +13103,7 @@
       <c r="FQ34" s="143"/>
       <c r="FR34" s="143"/>
     </row>
-    <row r="35" spans="1:257" ht="60">
+    <row r="35" spans="1:257" ht="66" hidden="1">
       <c r="A35" s="136"/>
       <c r="B35" s="136" t="s">
         <v>120</v>
@@ -13298,7 +13323,7 @@
       <c r="FQ35" s="90"/>
       <c r="FR35" s="90"/>
     </row>
-    <row r="36" spans="1:257" ht="60">
+    <row r="36" spans="1:257" ht="33" hidden="1">
       <c r="A36" s="136" t="s">
         <v>213</v>
       </c>
@@ -13528,7 +13553,7 @@
       <c r="FQ36" s="90"/>
       <c r="FR36" s="90"/>
     </row>
-    <row r="37" spans="1:257" ht="90">
+    <row r="37" spans="1:257" ht="49.5" hidden="1">
       <c r="A37" s="136" t="s">
         <v>213</v>
       </c>
@@ -13750,7 +13775,7 @@
       <c r="FQ37" s="90"/>
       <c r="FR37" s="90"/>
     </row>
-    <row r="38" spans="1:257" ht="45">
+    <row r="38" spans="1:257" ht="82.5" hidden="1">
       <c r="A38" s="184"/>
       <c r="B38" s="136" t="s">
         <v>120</v>
@@ -13974,7 +13999,7 @@
       <c r="FQ38" s="90"/>
       <c r="FR38" s="90"/>
     </row>
-    <row r="39" spans="1:257" ht="90">
+    <row r="39" spans="1:257" ht="49.5">
       <c r="A39" s="136" t="s">
         <v>213</v>
       </c>
@@ -14301,7 +14326,7 @@
       <c r="IV39" s="91"/>
       <c r="IW39" s="91"/>
     </row>
-    <row r="40" spans="1:257" ht="45">
+    <row r="40" spans="1:257" ht="66" hidden="1">
       <c r="A40" s="136" t="s">
         <v>213</v>
       </c>
@@ -14628,7 +14653,7 @@
       <c r="IV40" s="89"/>
       <c r="IW40" s="89"/>
     </row>
-    <row r="41" spans="1:257" ht="60">
+    <row r="41" spans="1:257" ht="49.5" hidden="1">
       <c r="A41" s="136" t="s">
         <v>213</v>
       </c>
@@ -14936,7 +14961,7 @@
       <c r="IV41" s="91"/>
       <c r="IW41" s="91"/>
     </row>
-    <row r="42" spans="1:257" ht="60">
+    <row r="42" spans="1:257" ht="115.5" hidden="1">
       <c r="A42" s="136"/>
       <c r="B42" s="136" t="s">
         <v>120</v>
@@ -15161,7 +15186,7 @@
       <c r="FQ42" s="90"/>
       <c r="FR42" s="90"/>
     </row>
-    <row r="43" spans="1:257" ht="75">
+    <row r="43" spans="1:257" ht="33" hidden="1">
       <c r="A43" s="136" t="s">
         <v>213</v>
       </c>
@@ -15390,7 +15415,7 @@
       <c r="FQ43" s="90"/>
       <c r="FR43" s="90"/>
     </row>
-    <row r="44" spans="1:257" ht="60">
+    <row r="44" spans="1:257" ht="66" hidden="1">
       <c r="A44" s="136"/>
       <c r="B44" s="136" t="s">
         <v>120</v>
@@ -15698,7 +15723,7 @@
       <c r="IV44" s="91"/>
       <c r="IW44" s="91"/>
     </row>
-    <row r="45" spans="1:257" ht="30">
+    <row r="45" spans="1:257" ht="33" hidden="1">
       <c r="A45" s="136" t="s">
         <v>213</v>
       </c>
@@ -15917,7 +15942,7 @@
       <c r="FQ45" s="90"/>
       <c r="FR45" s="90"/>
     </row>
-    <row r="46" spans="1:257" ht="45">
+    <row r="46" spans="1:257" ht="49.5" hidden="1">
       <c r="A46" s="136" t="s">
         <v>213</v>
       </c>
@@ -16227,7 +16252,7 @@
       <c r="IV46" s="91"/>
       <c r="IW46" s="91"/>
     </row>
-    <row r="47" spans="1:257" ht="75">
+    <row r="47" spans="1:257" ht="49.5" hidden="1">
       <c r="A47" s="136" t="s">
         <v>213</v>
       </c>
@@ -16537,7 +16562,7 @@
       <c r="IV47" s="89"/>
       <c r="IW47" s="89"/>
     </row>
-    <row r="48" spans="1:257" ht="30">
+    <row r="48" spans="1:257" ht="148.5" hidden="1">
       <c r="A48" s="136" t="s">
         <v>213</v>
       </c>
@@ -16764,7 +16789,7 @@
       <c r="FQ48"/>
       <c r="FR48"/>
     </row>
-    <row r="49" spans="1:16384" ht="105">
+    <row r="49" spans="1:16384" ht="66" hidden="1">
       <c r="A49" s="136" t="s">
         <v>213</v>
       </c>
@@ -16990,7 +17015,7 @@
       <c r="FQ49"/>
       <c r="FR49"/>
     </row>
-    <row r="50" spans="1:16384" ht="30">
+    <row r="50" spans="1:16384" ht="49.5" hidden="1">
       <c r="A50" s="136" t="s">
         <v>213</v>
       </c>
@@ -17219,7 +17244,7 @@
       <c r="FQ50"/>
       <c r="FR50"/>
     </row>
-    <row r="51" spans="1:16384" ht="45">
+    <row r="51" spans="1:16384" ht="33">
       <c r="A51" s="136"/>
       <c r="B51" s="136" t="s">
         <v>62</v>
@@ -17528,7 +17553,7 @@
       <c r="IV51" s="91"/>
       <c r="IW51" s="91"/>
     </row>
-    <row r="52" spans="1:16384" ht="30">
+    <row r="52" spans="1:16384" ht="33" hidden="1">
       <c r="A52" s="136"/>
       <c r="B52" s="136" t="s">
         <v>63</v>
@@ -33957,7 +33982,7 @@
       <c r="XFC52"/>
       <c r="XFD52"/>
     </row>
-    <row r="53" spans="1:16384" ht="30">
+    <row r="53" spans="1:16384" ht="33" hidden="1">
       <c r="A53" s="136"/>
       <c r="B53" s="136" t="s">
         <v>63</v>
@@ -50374,7 +50399,7 @@
       <c r="XFC53"/>
       <c r="XFD53"/>
     </row>
-    <row r="54" spans="1:16384" ht="45">
+    <row r="54" spans="1:16384" ht="49.5" hidden="1">
       <c r="A54" s="136"/>
       <c r="B54" s="136" t="s">
         <v>63</v>
@@ -66815,7 +66840,7 @@
       <c r="XFC54"/>
       <c r="XFD54"/>
     </row>
-    <row r="55" spans="1:16384" ht="135">
+    <row r="55" spans="1:16384" ht="49.5" hidden="1">
       <c r="A55" s="136"/>
       <c r="B55" s="136" t="s">
         <v>120</v>
@@ -67124,7 +67149,7 @@
       <c r="IV55" s="91"/>
       <c r="IW55" s="91"/>
     </row>
-    <row r="56" spans="1:16384" ht="60">
+    <row r="56" spans="1:16384" ht="33" hidden="1">
       <c r="A56" s="136"/>
       <c r="B56" s="136" t="s">
         <v>120</v>
@@ -67433,7 +67458,7 @@
       <c r="IV56" s="91"/>
       <c r="IW56" s="91"/>
     </row>
-    <row r="57" spans="1:16384" ht="30">
+    <row r="57" spans="1:16384" ht="33" hidden="1">
       <c r="A57" s="136"/>
       <c r="B57" s="136" t="s">
         <v>120</v>
@@ -67740,7 +67765,7 @@
       <c r="IV57" s="91"/>
       <c r="IW57" s="91"/>
     </row>
-    <row r="58" spans="1:16384" ht="30">
+    <row r="58" spans="1:16384" ht="49.5" hidden="1">
       <c r="A58" s="136"/>
       <c r="B58" s="136" t="s">
         <v>120</v>
@@ -67853,7 +67878,7 @@
       <c r="BH58" s="142"/>
       <c r="BI58" s="142"/>
       <c r="BJ58" s="128"/>
-      <c r="BK58" s="234"/>
+      <c r="BK58" s="205"/>
       <c r="BL58" s="129"/>
       <c r="BM58" s="129"/>
       <c r="BN58" s="142"/>
@@ -68049,7 +68074,7 @@
       <c r="IV58" s="142"/>
       <c r="IW58" s="142"/>
     </row>
-    <row r="59" spans="1:16384" ht="30">
+    <row r="59" spans="1:16384" ht="66" hidden="1">
       <c r="A59" s="136"/>
       <c r="B59" s="136" t="s">
         <v>120</v>
@@ -68360,7 +68385,7 @@
       <c r="IV59" s="91"/>
       <c r="IW59" s="91"/>
     </row>
-    <row r="60" spans="1:16384" ht="45">
+    <row r="60" spans="1:16384" ht="49.5" hidden="1">
       <c r="A60" s="136"/>
       <c r="B60" s="136" t="s">
         <v>120</v>
@@ -68473,7 +68498,7 @@
       <c r="BH60" s="142"/>
       <c r="BI60" s="142"/>
       <c r="BJ60" s="128"/>
-      <c r="BK60" s="234"/>
+      <c r="BK60" s="205"/>
       <c r="BL60" s="129"/>
       <c r="BM60" s="129"/>
       <c r="BN60" s="142"/>
@@ -68669,7 +68694,7 @@
       <c r="IV60" s="142"/>
       <c r="IW60" s="142"/>
     </row>
-    <row r="61" spans="1:16384" ht="45">
+    <row r="61" spans="1:16384" hidden="1">
       <c r="A61" s="89"/>
       <c r="B61" s="61" t="s">
         <v>62</v>
@@ -68753,7 +68778,7 @@
       <c r="BL61" s="89"/>
       <c r="BM61" s="89"/>
     </row>
-    <row r="62" spans="1:16384" ht="30">
+    <row r="62" spans="1:16384" ht="49.5">
       <c r="A62" s="136" t="s">
         <v>213</v>
       </c>
@@ -68875,7 +68900,7 @@
       <c r="BL62" s="61"/>
       <c r="BM62" s="61"/>
     </row>
-    <row r="63" spans="1:16384" ht="30">
+    <row r="63" spans="1:16384" ht="33">
       <c r="A63" s="136" t="s">
         <v>213</v>
       </c>
@@ -69094,7 +69119,7 @@
       <c r="IV63" s="89"/>
       <c r="IW63" s="89"/>
     </row>
-    <row r="64" spans="1:16384" ht="45">
+    <row r="64" spans="1:16384" ht="99" hidden="1">
       <c r="A64" s="136"/>
       <c r="B64" s="136" t="s">
         <v>120</v>
@@ -69178,7 +69203,7 @@
       <c r="AY64" s="101"/>
       <c r="AZ64" s="101"/>
     </row>
-    <row r="65" spans="1:257" ht="45">
+    <row r="65" spans="1:257" ht="66">
       <c r="A65" s="136" t="s">
         <v>213</v>
       </c>
@@ -69288,7 +69313,7 @@
       <c r="AU65" s="76">
         <v>43829</v>
       </c>
-      <c r="AV65" s="76">
+      <c r="AV65" s="78">
         <v>2380</v>
       </c>
       <c r="AW65" s="77" t="s">
@@ -69505,7 +69530,7 @@
       <c r="IV65" s="142"/>
       <c r="IW65" s="142"/>
     </row>
-    <row r="66" spans="1:257" ht="45">
+    <row r="66" spans="1:257" ht="66" hidden="1">
       <c r="A66" s="136"/>
       <c r="B66" s="136" t="s">
         <v>120</v>
@@ -69591,7 +69616,7 @@
       <c r="AY66" s="101"/>
       <c r="AZ66" s="101"/>
     </row>
-    <row r="67" spans="1:257" ht="75">
+    <row r="67" spans="1:257" ht="82.5" hidden="1">
       <c r="A67" s="136"/>
       <c r="B67" s="136" t="s">
         <v>120</v>
@@ -69676,7 +69701,7 @@
       <c r="AY67" s="101"/>
       <c r="AZ67" s="101"/>
     </row>
-    <row r="68" spans="1:257" ht="60">
+    <row r="68" spans="1:257" ht="33" hidden="1">
       <c r="A68" s="136"/>
       <c r="B68" s="136" t="s">
         <v>120</v>
@@ -69983,7 +70008,7 @@
       <c r="IV68" s="89"/>
       <c r="IW68" s="89"/>
     </row>
-    <row r="69" spans="1:257" ht="75">
+    <row r="69" spans="1:257" ht="33" hidden="1">
       <c r="A69" s="136"/>
       <c r="B69" s="136" t="s">
         <v>120</v>
@@ -70062,7 +70087,7 @@
       <c r="AY69" s="101"/>
       <c r="AZ69" s="101"/>
     </row>
-    <row r="70" spans="1:257" ht="30">
+    <row r="70" spans="1:257" hidden="1">
       <c r="A70" s="91"/>
       <c r="B70" s="61" t="s">
         <v>62</v>
@@ -70355,7 +70380,7 @@
       <c r="IV70" s="89"/>
       <c r="IW70" s="89"/>
     </row>
-    <row r="71" spans="1:257" ht="30">
+    <row r="71" spans="1:257" ht="66" hidden="1">
       <c r="A71" s="136" t="s">
         <v>213</v>
       </c>
@@ -70440,7 +70465,7 @@
       <c r="AY71" s="101"/>
       <c r="AZ71" s="101"/>
     </row>
-    <row r="72" spans="1:257" ht="60">
+    <row r="72" spans="1:257" ht="49.5" hidden="1">
       <c r="A72" s="136"/>
       <c r="B72" s="136" t="s">
         <v>120</v>
@@ -70751,7 +70776,7 @@
       <c r="IV72" s="89"/>
       <c r="IW72" s="89"/>
     </row>
-    <row r="73" spans="1:257" ht="45">
+    <row r="73" spans="1:257" ht="49.5">
       <c r="A73" s="136" t="s">
         <v>213</v>
       </c>
@@ -70881,7 +70906,7 @@
       <c r="BL73" s="61"/>
       <c r="BM73" s="61"/>
     </row>
-    <row r="74" spans="1:257" ht="75">
+    <row r="74" spans="1:257" ht="82.5" hidden="1">
       <c r="A74" s="136" t="s">
         <v>213</v>
       </c>
@@ -70965,7 +70990,7 @@
       <c r="AY74" s="66"/>
       <c r="AZ74" s="66"/>
     </row>
-    <row r="75" spans="1:257" ht="90">
+    <row r="75" spans="1:257" ht="115.5" hidden="1">
       <c r="A75" s="136" t="s">
         <v>213</v>
       </c>
@@ -71049,7 +71074,7 @@
       <c r="AY75" s="66"/>
       <c r="AZ75" s="66"/>
     </row>
-    <row r="76" spans="1:257" ht="30">
+    <row r="76" spans="1:257" ht="33" hidden="1">
       <c r="A76" s="136"/>
       <c r="B76" s="136" t="s">
         <v>120</v>
@@ -71125,7 +71150,7 @@
       <c r="AY76" s="66"/>
       <c r="AZ76" s="66"/>
     </row>
-    <row r="77" spans="1:257" ht="75">
+    <row r="77" spans="1:257" ht="99" hidden="1">
       <c r="A77" s="136"/>
       <c r="B77" s="136" t="s">
         <v>120</v>
@@ -71203,7 +71228,7 @@
       <c r="AY77" s="66"/>
       <c r="AZ77" s="66"/>
     </row>
-    <row r="78" spans="1:257" ht="30">
+    <row r="78" spans="1:257" ht="33" hidden="1">
       <c r="A78" s="136" t="s">
         <v>213</v>
       </c>
@@ -71285,7 +71310,7 @@
       <c r="AY78" s="66"/>
       <c r="AZ78" s="66"/>
     </row>
-    <row r="79" spans="1:257" ht="60">
+    <row r="79" spans="1:257" ht="66" hidden="1">
       <c r="A79" s="136" t="s">
         <v>213</v>
       </c>
@@ -71369,7 +71394,7 @@
       <c r="AY79" s="66"/>
       <c r="AZ79" s="66"/>
     </row>
-    <row r="80" spans="1:257" ht="75">
+    <row r="80" spans="1:257" ht="82.5" hidden="1">
       <c r="A80" s="136" t="s">
         <v>213</v>
       </c>
@@ -72617,6 +72642,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:IW80">
+    <filterColumn colId="46">
+      <filters>
+        <dateGroupItem year="2019" month="12" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A3:IW2080">
       <sortCondition ref="C2:C2080"/>
     </sortState>
@@ -72632,9 +72662,9 @@
     <mergeCell ref="AC1:AM1"/>
     <mergeCell ref="AN1:AX1"/>
   </mergeCells>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y42 Y36:Y41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y36:Y42">
       <formula1>"大众点评,朋友圈,微信群,微博,小红书,广告牌"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY3:AZ371">
@@ -72653,7 +72683,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -72663,35 +72693,35 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="13" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="5" customWidth="1"/>
     <col min="13" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="53.25" customHeight="1"/>
-    <row r="2" spans="1:40" ht="70" customHeight="1">
+    <row r="2" spans="1:40" ht="69.95" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="228" t="s">
         <v>611</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
       <c r="I2" s="35"/>
       <c r="J2" s="36" t="s">
         <v>11</v>
@@ -72729,7 +72759,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:40" ht="11" customHeight="1">
+    <row r="3" spans="1:40" ht="11.1" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -72788,11 +72818,11 @@
       <c r="F4" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="G4" s="206">
+      <c r="G4" s="229">
         <f>VLOOKUP(K2,拍摄总表!C:Q,4,0)</f>
         <v>13040626829</v>
       </c>
-      <c r="H4" s="206"/>
+      <c r="H4" s="229"/>
       <c r="I4" s="8"/>
       <c r="J4" s="22" t="s">
         <v>31</v>
@@ -72831,7 +72861,7 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
     </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" ht="23" customHeight="1">
+    <row r="5" spans="1:40" s="2" customFormat="1" ht="23.1" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -72845,11 +72875,11 @@
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="207" t="str">
+      <c r="G5" s="230" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,6,0)</f>
         <v>Steps四袋拍摄影棚内</v>
       </c>
-      <c r="H5" s="207"/>
+      <c r="H5" s="230"/>
       <c r="I5" s="8"/>
       <c r="J5" s="22" t="s">
         <v>33</v>
@@ -72888,7 +72918,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" ht="17" customHeight="1">
+    <row r="6" spans="1:40" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -72929,153 +72959,156 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="7" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="208" t="str">
+      <c r="D7" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,7,0)</f>
         <v>6980平日大全家福</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
       <c r="J7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="8" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="208" t="str">
+      <c r="D8" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,8,0)</f>
-        <v>俞嘉浩（2004.08.26男生）+Yu Kawo（2010，9.25男生）+爸爸妈妈_x000D_孙文琦（2003.1.22女生）+孙可可（2014.08.26女生）+爸爸妈妈+两位长辈</v>
-      </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
+        <v>俞嘉浩（2004.08.26男生）+Yu Kawo（2010，9.25男生）+爸爸妈妈
+孙文琦（2003.1.22女生）+孙可可（2014.08.26女生）+爸爸妈妈+两位长辈</v>
+      </c>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
       <c r="J8" s="3" t="s">
         <v>613</v>
       </c>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="9" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="208" t="str">
+      <c r="D9" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,9,0)</f>
         <v>棚内2组</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="209"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
       <c r="J9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="10" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="208" t="str">
+      <c r="D10" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,10,0)</f>
         <v>3-4小时</v>
       </c>
-      <c r="E10" s="208"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="11" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="208">
+      <c r="D11" s="221">
         <f>VLOOKUP(K2,拍摄总表!C:Q,11,0)</f>
         <v>38</v>
       </c>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="12" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="208" t="str">
+      <c r="D12" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,12,0)</f>
         <v>全送</v>
       </c>
-      <c r="E12" s="208"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="222"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="13" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="208" t="str">
+      <c r="D13" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,13,0)</f>
-        <v>10寸轻相册  一本 _x000D_24寸油画框 一个_x000D_10寸精致摆台 一个</v>
-      </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
+        <v>10寸轻相册  一本 
+24寸油画框 一个
+10寸精致摆台 一个</v>
+      </c>
+      <c r="E13" s="221"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="14" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="208" t="str">
+      <c r="D14" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,14,0)</f>
         <v>提供</v>
       </c>
-      <c r="E14" s="208"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="15" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="210" t="str">
+      <c r="D15" s="223" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,15,0)</f>
         <v>待沟通</v>
       </c>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="211"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="224"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -73090,7 +73123,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>614</v>
       </c>
@@ -73115,19 +73148,19 @@
       </c>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="18" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="212" t="str">
+      <c r="D18" s="225" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:AB,21,0)</f>
         <v>点评活动平日特惠6980</v>
       </c>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
       <c r="J18" s="40"/>
       <c r="K18" s="41"/>
     </row>
@@ -73135,24 +73168,24 @@
       <c r="J19" s="40"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="20" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B20" s="47" t="s">
         <v>618</v>
       </c>
       <c r="C20" s="48"/>
-      <c r="D20" s="213" t="s">
+      <c r="D20" s="226" t="s">
         <v>619</v>
       </c>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="214"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="227"/>
       <c r="J20" s="39" t="s">
         <v>620</v>
       </c>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="21" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B21" s="49" t="s">
         <v>621</v>
       </c>
@@ -73167,7 +73200,7 @@
       <c r="J21" s="40"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="22" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B22" s="49" t="s">
         <v>623</v>
       </c>
@@ -73184,7 +73217,7 @@
       </c>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="23" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B23" s="49" t="s">
         <v>626</v>
       </c>
@@ -73199,7 +73232,7 @@
       <c r="J23" s="42"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="24" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B24" s="49" t="s">
         <v>628</v>
       </c>
@@ -73236,7 +73269,7 @@
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="2:11" s="2" customFormat="1"/>
-    <row r="28" spans="2:11" s="2" customFormat="1" ht="14" customHeight="1">
+    <row r="28" spans="2:11" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -73249,42 +73282,42 @@
       <c r="K28" s="26"/>
     </row>
     <row r="29" spans="2:11" s="2" customFormat="1" ht="36" customHeight="1"/>
-    <row r="30" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="30" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B30" s="27" t="s">
         <v>633</v>
       </c>
       <c r="D30" s="25"/>
-      <c r="F30" s="215" t="s">
+      <c r="F30" s="219" t="s">
         <v>634</v>
       </c>
-      <c r="G30" s="215"/>
+      <c r="G30" s="219"/>
       <c r="H30" s="25"/>
       <c r="J30" s="43" t="s">
         <v>635</v>
       </c>
       <c r="K30" s="25"/>
     </row>
-    <row r="31" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="31" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="32" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="216" t="s">
+      <c r="D32" s="218" t="s">
         <v>636</v>
       </c>
-      <c r="E32" s="216"/>
-      <c r="F32" s="215" t="s">
+      <c r="E32" s="218"/>
+      <c r="F32" s="219" t="s">
         <v>637</v>
       </c>
-      <c r="G32" s="215"/>
+      <c r="G32" s="219"/>
       <c r="H32" s="31" t="s">
         <v>638</v>
       </c>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="33" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B33" s="30"/>
       <c r="C33" s="32"/>
       <c r="K33" s="3"/>
@@ -73292,52 +73325,52 @@
         <v>639</v>
       </c>
     </row>
-    <row r="34" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="34" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B34" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="217" t="s">
+      <c r="D34" s="220" t="s">
         <v>640</v>
       </c>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
+      <c r="E34" s="220"/>
+      <c r="F34" s="220"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="35" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B35" s="27"/>
       <c r="J35" s="44"/>
     </row>
-    <row r="36" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="36" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B36" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="216"/>
-      <c r="H36" s="216"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
       <c r="J36" s="44" t="s">
         <v>625</v>
       </c>
       <c r="K36" s="25"/>
     </row>
-    <row r="37" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="37" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="J37" s="44"/>
     </row>
-    <row r="38" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="216"/>
+    <row r="38" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
+      <c r="D38" s="218"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
       <c r="J38" s="44" t="s">
         <v>28</v>
       </c>
       <c r="K38" s="25"/>
     </row>
-    <row r="39" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="39" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>642</v>
       </c>
@@ -73346,51 +73379,51 @@
       </c>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" spans="2:15" s="2" customFormat="1" ht="128" customHeight="1">
+    <row r="40" spans="2:15" s="2" customFormat="1" ht="128.1" customHeight="1">
       <c r="F40" s="34" t="s">
         <v>632</v>
       </c>
       <c r="H40" s="25"/>
     </row>
-    <row r="41" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="42" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="43" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="44" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="45" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="46" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="47" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="48" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="49" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="50" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="51" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="52" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="53" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="54" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="55" s="4" customFormat="1" ht="28" customHeight="1"/>
+    <row r="41" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="42" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="43" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="44" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="45" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="46" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="47" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="48" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="49" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="50" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="51" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="52" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="53" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="54" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="55" s="4" customFormat="1" ht="27.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
   </mergeCells>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.24791666666666701" right="0.24791666666666701" top="0.35763888888888901" bottom="0.75138888888888899" header="0.297916666666667" footer="0.297916666666667"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -73404,7 +73437,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="9" tint="0.39988402966399123"/>
   </sheetPr>
   <dimension ref="A1:AN56"/>
@@ -73413,35 +73446,35 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="23" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="5" customWidth="1"/>
     <col min="13" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="87" customHeight="1"/>
-    <row r="2" spans="1:40" ht="70" customHeight="1">
+    <row r="2" spans="1:40" ht="69.95" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="228" t="s">
         <v>611</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
       <c r="I2" s="35"/>
       <c r="J2" s="36" t="s">
         <v>11</v>
@@ -73479,7 +73512,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:40" ht="11" customHeight="1">
+    <row r="3" spans="1:40" ht="11.1" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -73538,11 +73571,11 @@
       <c r="F4" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="G4" s="206">
+      <c r="G4" s="229">
         <f>VLOOKUP(K2,拍摄总表!C:Q,4,0)</f>
         <v>13918852376</v>
       </c>
-      <c r="H4" s="206"/>
+      <c r="H4" s="229"/>
       <c r="I4" s="8"/>
       <c r="J4" s="22" t="s">
         <v>31</v>
@@ -73581,7 +73614,7 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
     </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" ht="23" customHeight="1">
+    <row r="5" spans="1:40" s="2" customFormat="1" ht="23.1" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -73595,11 +73628,11 @@
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="207" t="str">
+      <c r="G5" s="230" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,6,0)</f>
         <v>Steps四袋拍摄影棚内</v>
       </c>
-      <c r="H5" s="207"/>
+      <c r="H5" s="230"/>
       <c r="I5" s="8"/>
       <c r="J5" s="22" t="s">
         <v>33</v>
@@ -73638,7 +73671,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" ht="17" customHeight="1">
+    <row r="6" spans="1:40" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -73679,153 +73712,153 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="7" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="208" t="str">
+      <c r="D7" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,7,0)</f>
         <v>880哺乳照</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
       <c r="J7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="8" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="208" t="str">
+      <c r="D8" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,8,0)</f>
         <v>一克拉（2019.4月女孩）+妈妈</v>
       </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
       <c r="J8" s="3" t="s">
         <v>613</v>
       </c>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="9" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="208" t="str">
+      <c r="D9" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,9,0)</f>
         <v>棚内1套</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="209"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
       <c r="J9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="10" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="208" t="str">
+      <c r="D10" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,10,0)</f>
         <v>1-2小时左右</v>
       </c>
-      <c r="E10" s="208"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="11" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="208">
+      <c r="D11" s="221">
         <f>VLOOKUP(K2,拍摄总表!C:Q,11,0)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="12" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="208" t="str">
+      <c r="D12" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,12,0)</f>
         <v>无</v>
       </c>
-      <c r="E12" s="208"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="222"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="13" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="208" t="str">
+      <c r="D13" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,13,0)</f>
         <v>无</v>
       </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="14" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="208" t="str">
+      <c r="D14" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,14,0)</f>
         <v>提供</v>
       </c>
-      <c r="E14" s="208"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="15" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="210" t="str">
+      <c r="D15" s="223" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,15,0)</f>
         <v>待沟通</v>
       </c>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="211"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="224"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -73840,7 +73873,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>614</v>
       </c>
@@ -73865,19 +73898,19 @@
       </c>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="18" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="212" t="str">
+      <c r="D18" s="225" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:AB,21,0)</f>
         <v>先约880，拍摄完确定要不要更换套餐。</v>
       </c>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
       <c r="J18" s="40"/>
       <c r="K18" s="41"/>
     </row>
@@ -73885,24 +73918,24 @@
       <c r="J19" s="40"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="20" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B20" s="47" t="s">
         <v>618</v>
       </c>
       <c r="C20" s="48"/>
-      <c r="D20" s="213" t="s">
+      <c r="D20" s="226" t="s">
         <v>644</v>
       </c>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="214"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="227"/>
       <c r="J20" s="39" t="s">
         <v>620</v>
       </c>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="21" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B21" s="49" t="s">
         <v>621</v>
       </c>
@@ -73917,7 +73950,7 @@
       <c r="J21" s="40"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="22" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B22" s="49" t="s">
         <v>623</v>
       </c>
@@ -73934,7 +73967,7 @@
       </c>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="23" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B23" s="49" t="s">
         <v>626</v>
       </c>
@@ -73949,7 +73982,7 @@
       <c r="J23" s="42"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="24" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B24" s="49" t="s">
         <v>628</v>
       </c>
@@ -73966,7 +73999,7 @@
       </c>
       <c r="K24" s="25"/>
     </row>
-    <row r="25" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="25" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B25" s="55" t="s">
         <v>630</v>
       </c>
@@ -73981,8 +74014,8 @@
       <c r="J25" s="39"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11" s="2" customFormat="1" ht="85" customHeight="1"/>
-    <row r="27" spans="2:11" s="2" customFormat="1" ht="85" customHeight="1">
+    <row r="26" spans="2:11" s="2" customFormat="1" ht="84.95" customHeight="1"/>
+    <row r="27" spans="2:11" s="2" customFormat="1" ht="84.95" customHeight="1">
       <c r="F27" s="34" t="s">
         <v>632</v>
       </c>
@@ -74001,45 +74034,45 @@
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
-    <row r="30" spans="2:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="31" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="30" spans="2:11" s="2" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="31" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B31" s="27" t="s">
         <v>633</v>
       </c>
       <c r="D31" s="25"/>
-      <c r="F31" s="215" t="s">
+      <c r="F31" s="219" t="s">
         <v>634</v>
       </c>
-      <c r="G31" s="215"/>
+      <c r="G31" s="219"/>
       <c r="H31" s="25"/>
       <c r="J31" s="43" t="s">
         <v>635</v>
       </c>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="32" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B32" s="29"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="2:15" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="33" spans="2:15" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B33" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="216" t="s">
+      <c r="D33" s="218" t="s">
         <v>636</v>
       </c>
-      <c r="E33" s="216"/>
-      <c r="F33" s="215" t="s">
+      <c r="E33" s="218"/>
+      <c r="F33" s="219" t="s">
         <v>637</v>
       </c>
-      <c r="G33" s="215"/>
+      <c r="G33" s="219"/>
       <c r="H33" s="31" t="s">
         <v>638</v>
       </c>
       <c r="K33" s="25"/>
     </row>
-    <row r="34" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="34" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B34" s="30"/>
       <c r="C34" s="32"/>
       <c r="K34" s="3"/>
@@ -74047,52 +74080,52 @@
         <v>639</v>
       </c>
     </row>
-    <row r="35" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="35" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B35" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="217" t="s">
+      <c r="D35" s="220" t="s">
         <v>640</v>
       </c>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
       <c r="K35" s="25"/>
     </row>
-    <row r="36" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="36" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B36" s="27"/>
       <c r="J36" s="44"/>
     </row>
-    <row r="37" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="37" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B37" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
+      <c r="D37" s="218"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="218"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
       <c r="J37" s="44" t="s">
         <v>625</v>
       </c>
       <c r="K37" s="25"/>
     </row>
-    <row r="38" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="38" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="J38" s="44"/>
     </row>
-    <row r="39" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="D39" s="216"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="216"/>
+    <row r="39" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
+      <c r="D39" s="218"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
       <c r="J39" s="44" t="s">
         <v>28</v>
       </c>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="40" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B40" s="33" t="s">
         <v>642</v>
       </c>
@@ -74101,51 +74134,51 @@
       </c>
       <c r="E40" s="33"/>
     </row>
-    <row r="41" spans="2:15" s="2" customFormat="1" ht="128" customHeight="1">
+    <row r="41" spans="2:15" s="2" customFormat="1" ht="128.1" customHeight="1">
       <c r="F41" s="34" t="s">
         <v>632</v>
       </c>
       <c r="H41" s="25"/>
     </row>
-    <row r="42" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="43" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="44" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="45" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="46" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="47" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="48" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="49" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="50" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="51" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="52" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="53" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="54" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="55" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="56" s="4" customFormat="1" ht="28" customHeight="1"/>
+    <row r="42" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="43" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="44" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="45" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="46" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="47" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="48" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="49" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="50" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="51" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="52" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="53" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="54" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="55" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="56" s="4" customFormat="1" ht="27.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
   </mergeCells>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -74159,7 +74192,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AN56"/>
@@ -74168,35 +74201,35 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="5" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="5" customWidth="1"/>
     <col min="13" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="116.25" customHeight="1"/>
-    <row r="2" spans="1:40" ht="70" customHeight="1">
+    <row r="2" spans="1:40" ht="69.95" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="231" t="s">
         <v>611</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
       <c r="I2" s="35"/>
       <c r="J2" s="36" t="s">
         <v>11</v>
@@ -74234,7 +74267,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:40" ht="11" customHeight="1">
+    <row r="3" spans="1:40" ht="11.1" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -74293,11 +74326,11 @@
       <c r="F4" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="G4" s="206">
+      <c r="G4" s="229">
         <f>VLOOKUP(K2,拍摄总表!C:Q,4,0)</f>
         <v>18621507331</v>
       </c>
-      <c r="H4" s="206"/>
+      <c r="H4" s="229"/>
       <c r="I4" s="8"/>
       <c r="J4" s="22" t="s">
         <v>31</v>
@@ -74336,7 +74369,7 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
     </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" ht="23" customHeight="1">
+    <row r="5" spans="1:40" s="2" customFormat="1" ht="23.1" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -74350,11 +74383,11 @@
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="207" t="str">
+      <c r="G5" s="230" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,6,0)</f>
         <v>Steps四袋拍摄影棚内</v>
       </c>
-      <c r="H5" s="207"/>
+      <c r="H5" s="230"/>
       <c r="I5" s="8"/>
       <c r="J5" s="22" t="s">
         <v>33</v>
@@ -74393,7 +74426,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" ht="17" customHeight="1">
+    <row r="6" spans="1:40" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -74434,153 +74467,153 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="7" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="208" t="str">
+      <c r="D7" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,7,0)</f>
         <v>1000元职业照</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
       <c r="J7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="8" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="208" t="str">
+      <c r="D8" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,8,0)</f>
         <v>李衡</v>
       </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
       <c r="J8" s="3" t="s">
         <v>613</v>
       </c>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="9" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="208" t="str">
+      <c r="D9" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,9,0)</f>
         <v>棚内1套</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="209"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
       <c r="J9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="10" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="208" t="str">
+      <c r="D10" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,10,0)</f>
         <v>1-2小时左右</v>
       </c>
-      <c r="E10" s="208"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="11" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="208">
+      <c r="D11" s="221">
         <f>VLOOKUP(K2,拍摄总表!C:Q,11,0)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="12" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="208" t="str">
+      <c r="D12" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,12,0)</f>
         <v>无</v>
       </c>
-      <c r="E12" s="208"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="222"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="13" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="208" t="str">
+      <c r="D13" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,13,0)</f>
         <v>无</v>
       </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="14" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="208" t="str">
+      <c r="D14" s="221" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,14,0)</f>
         <v>提供</v>
       </c>
-      <c r="E14" s="208"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="15" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="210" t="str">
+      <c r="D15" s="223" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:Q,15,0)</f>
         <v>待沟通</v>
       </c>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="211"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="224"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -74595,7 +74628,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>614</v>
       </c>
@@ -74620,19 +74653,19 @@
       </c>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="18" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="212" t="str">
+      <c r="D18" s="225" t="str">
         <f>VLOOKUP(K2,拍摄总表!C:AB,21,0)</f>
         <v>保时捷员工拍摄券，费用已付。</v>
       </c>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
       <c r="J18" s="40"/>
       <c r="K18" s="41"/>
     </row>
@@ -74640,24 +74673,24 @@
       <c r="J19" s="40"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="20" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B20" s="47" t="s">
         <v>618</v>
       </c>
       <c r="C20" s="48"/>
-      <c r="D20" s="213" t="s">
+      <c r="D20" s="226" t="s">
         <v>619</v>
       </c>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="214"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="227"/>
       <c r="J20" s="39" t="s">
         <v>620</v>
       </c>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="21" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B21" s="49" t="s">
         <v>649</v>
       </c>
@@ -74672,7 +74705,7 @@
       <c r="J21" s="40"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="22" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B22" s="49" t="s">
         <v>623</v>
       </c>
@@ -74689,7 +74722,7 @@
       </c>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="23" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B23" s="49" t="s">
         <v>626</v>
       </c>
@@ -74704,7 +74737,7 @@
       <c r="J23" s="42"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="24" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B24" s="49" t="s">
         <v>628</v>
       </c>
@@ -74721,7 +74754,7 @@
       </c>
       <c r="K24" s="25"/>
     </row>
-    <row r="25" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="25" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B25" s="55" t="s">
         <v>654</v>
       </c>
@@ -74736,8 +74769,8 @@
       <c r="J25" s="39"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11" s="2" customFormat="1" ht="73" customHeight="1"/>
-    <row r="27" spans="2:11" s="2" customFormat="1" ht="20">
+    <row r="26" spans="2:11" s="2" customFormat="1" ht="72.95" customHeight="1"/>
+    <row r="27" spans="2:11" s="2" customFormat="1" ht="20.25">
       <c r="F27" s="13" t="s">
         <v>632</v>
       </c>
@@ -74756,42 +74789,42 @@
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
     </row>
-    <row r="30" spans="2:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="31" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="30" spans="2:11" s="2" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="31" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B31" s="27" t="s">
         <v>633</v>
       </c>
       <c r="D31" s="25"/>
-      <c r="F31" s="215" t="s">
+      <c r="F31" s="219" t="s">
         <v>634</v>
       </c>
-      <c r="G31" s="215"/>
+      <c r="G31" s="219"/>
       <c r="H31" s="25"/>
       <c r="J31" s="43" t="s">
         <v>635</v>
       </c>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="32" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:15" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="33" spans="2:15" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B33" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>638</v>
       </c>
-      <c r="F33" s="215" t="s">
+      <c r="F33" s="219" t="s">
         <v>637</v>
       </c>
-      <c r="G33" s="215"/>
+      <c r="G33" s="219"/>
       <c r="H33" s="31" t="s">
         <v>638</v>
       </c>
       <c r="K33" s="25"/>
     </row>
-    <row r="34" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="34" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B34" s="30"/>
       <c r="C34" s="32"/>
       <c r="K34" s="3"/>
@@ -74799,52 +74832,52 @@
         <v>639</v>
       </c>
     </row>
-    <row r="35" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="35" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B35" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="217" t="s">
+      <c r="D35" s="220" t="s">
         <v>640</v>
       </c>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
       <c r="K35" s="25"/>
     </row>
-    <row r="36" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="36" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B36" s="27"/>
       <c r="J36" s="44"/>
     </row>
-    <row r="37" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="37" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B37" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
+      <c r="D37" s="218"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="218"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
       <c r="J37" s="44" t="s">
         <v>625</v>
       </c>
       <c r="K37" s="25"/>
     </row>
-    <row r="38" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="38" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="J38" s="44"/>
     </row>
-    <row r="39" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="D39" s="216"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="216"/>
+    <row r="39" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
+      <c r="D39" s="218"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
       <c r="J39" s="44" t="s">
         <v>28</v>
       </c>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="40" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B40" s="33" t="s">
         <v>642</v>
       </c>
@@ -74853,29 +74886,39 @@
       </c>
       <c r="E40" s="33"/>
     </row>
-    <row r="41" spans="2:15" s="2" customFormat="1" ht="128" customHeight="1">
+    <row r="41" spans="2:15" s="2" customFormat="1" ht="128.1" customHeight="1">
       <c r="F41" s="34" t="s">
         <v>632</v>
       </c>
       <c r="H41" s="25"/>
     </row>
-    <row r="42" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="43" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="44" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="45" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="46" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="47" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="48" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="49" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="50" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="51" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="52" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="53" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="54" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="55" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="56" s="4" customFormat="1" ht="28" customHeight="1"/>
+    <row r="42" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="43" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="44" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="45" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="46" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="47" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="48" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="49" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="50" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="51" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="52" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="53" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="54" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="55" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="56" s="4" customFormat="1" ht="27.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D37:H37"/>
@@ -74885,18 +74928,8 @@
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
   </mergeCells>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -74910,7 +74943,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AN55"/>
@@ -74919,35 +74952,35 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="5" customWidth="1"/>
     <col min="13" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="87.75" customHeight="1"/>
-    <row r="2" spans="1:40" ht="70" customHeight="1">
+    <row r="2" spans="1:40" ht="69.95" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="234" t="s">
         <v>656</v>
       </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
       <c r="I2" s="35"/>
       <c r="J2" s="36" t="s">
         <v>11</v>
@@ -74983,7 +75016,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:40" ht="11" customHeight="1">
+    <row r="3" spans="1:40" ht="11.1" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -75042,11 +75075,11 @@
       <c r="F4" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="G4" s="206" t="e">
+      <c r="G4" s="229" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,4,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="206"/>
+      <c r="H4" s="229"/>
       <c r="I4" s="8"/>
       <c r="J4" s="22" t="s">
         <v>31</v>
@@ -75085,7 +75118,7 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
     </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" ht="23" customHeight="1">
+    <row r="5" spans="1:40" s="2" customFormat="1" ht="23.1" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -75099,11 +75132,11 @@
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="207" t="e">
+      <c r="G5" s="230" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H5" s="207"/>
+      <c r="H5" s="230"/>
       <c r="I5" s="8"/>
       <c r="J5" s="22" t="s">
         <v>33</v>
@@ -75142,7 +75175,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" ht="17" customHeight="1">
+    <row r="6" spans="1:40" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -75183,153 +75216,153 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="7" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="208" t="e">
+      <c r="D7" s="221" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
       <c r="J7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="8" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="208" t="e">
+      <c r="D8" s="221" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
       <c r="J8" s="3" t="s">
         <v>613</v>
       </c>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="9" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="208" t="e">
+      <c r="D9" s="221" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,9,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="209"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
       <c r="J9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="10" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="208" t="e">
+      <c r="D10" s="221" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,10,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E10" s="208"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="11" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="208" t="e">
+      <c r="D11" s="221" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,11,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="12" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="208" t="e">
+      <c r="D12" s="221" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,12,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E12" s="208"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="222"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="13" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="208" t="e">
+      <c r="D13" s="221" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,13,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="14" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="208" t="e">
+      <c r="D14" s="221" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,14,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="208"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:40" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="15" spans="1:40" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="210" t="e">
+      <c r="D15" s="223" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:Q,15,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="211"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="224"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -75344,7 +75377,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>614</v>
       </c>
@@ -75369,19 +75402,19 @@
       </c>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="18" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="212" t="e">
+      <c r="D18" s="225" t="e">
         <f>VLOOKUP(K2,拍摄总表!C:AB,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
       <c r="J18" s="40"/>
       <c r="K18" s="41"/>
     </row>
@@ -75389,24 +75422,24 @@
       <c r="J19" s="40"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="20" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B20" s="23" t="s">
         <v>618</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="220" t="s">
+      <c r="D20" s="233" t="s">
         <v>657</v>
       </c>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="220"/>
-      <c r="H20" s="220"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
       <c r="J20" s="39" t="s">
         <v>620</v>
       </c>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="21" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B21" s="23" t="s">
         <v>658</v>
       </c>
@@ -75421,7 +75454,7 @@
       <c r="J21" s="40"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="22" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B22" s="23" t="s">
         <v>660</v>
       </c>
@@ -75438,7 +75471,7 @@
       </c>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="23" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B23" s="23" t="s">
         <v>662</v>
       </c>
@@ -75447,17 +75480,17 @@
         <v>663</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="221" t="s">
+      <c r="F23" s="232" t="s">
         <v>664</v>
       </c>
-      <c r="G23" s="221"/>
+      <c r="G23" s="232"/>
       <c r="H23" s="24" t="s">
         <v>665</v>
       </c>
       <c r="J23" s="42"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" s="2" customFormat="1" ht="34" customHeight="1">
+    <row r="24" spans="2:11" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="B24" s="23" t="s">
         <v>626</v>
       </c>
@@ -75466,10 +75499,10 @@
         <v>627</v>
       </c>
       <c r="E24" s="24"/>
-      <c r="F24" s="221" t="s">
+      <c r="F24" s="232" t="s">
         <v>628</v>
       </c>
-      <c r="G24" s="221"/>
+      <c r="G24" s="232"/>
       <c r="H24" s="24" t="s">
         <v>666</v>
       </c>
@@ -75479,7 +75512,7 @@
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="2:11" s="2" customFormat="1" ht="89.25" customHeight="1"/>
-    <row r="26" spans="2:11" s="2" customFormat="1" ht="20">
+    <row r="26" spans="2:11" s="2" customFormat="1" ht="20.25">
       <c r="F26" s="13" t="s">
         <v>632</v>
       </c>
@@ -75498,43 +75531,43 @@
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
     </row>
-    <row r="29" spans="2:11" s="2" customFormat="1" ht="25" customHeight="1"/>
-    <row r="30" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="29" spans="2:11" s="2" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="30" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B30" s="27" t="s">
         <v>633</v>
       </c>
       <c r="D30" s="25"/>
-      <c r="F30" s="215" t="s">
+      <c r="F30" s="219" t="s">
         <v>634</v>
       </c>
-      <c r="G30" s="215"/>
+      <c r="G30" s="219"/>
       <c r="H30" s="25"/>
       <c r="J30" s="43" t="s">
         <v>635</v>
       </c>
       <c r="K30" s="25"/>
     </row>
-    <row r="31" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="31" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:11" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="32" spans="2:11" s="3" customFormat="1" ht="27.95" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="216" t="s">
+      <c r="D32" s="218" t="s">
         <v>636</v>
       </c>
-      <c r="E32" s="216"/>
-      <c r="F32" s="215" t="s">
+      <c r="E32" s="218"/>
+      <c r="F32" s="219" t="s">
         <v>637</v>
       </c>
-      <c r="G32" s="215"/>
+      <c r="G32" s="219"/>
       <c r="H32" s="31" t="s">
         <v>638</v>
       </c>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="33" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B33" s="30"/>
       <c r="C33" s="32"/>
       <c r="K33" s="3"/>
@@ -75542,52 +75575,52 @@
         <v>639</v>
       </c>
     </row>
-    <row r="34" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="34" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B34" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="217" t="s">
+      <c r="D34" s="220" t="s">
         <v>640</v>
       </c>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
+      <c r="E34" s="220"/>
+      <c r="F34" s="220"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="35" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B35" s="27"/>
       <c r="J35" s="44"/>
     </row>
-    <row r="36" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="36" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B36" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="216"/>
-      <c r="H36" s="216"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
       <c r="J36" s="44" t="s">
         <v>625</v>
       </c>
       <c r="K36" s="25"/>
     </row>
-    <row r="37" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="37" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="J37" s="44"/>
     </row>
-    <row r="38" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="216"/>
+    <row r="38" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
+      <c r="D38" s="218"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
       <c r="J38" s="44" t="s">
         <v>28</v>
       </c>
       <c r="K38" s="25"/>
     </row>
-    <row r="39" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1">
+    <row r="39" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>642</v>
       </c>
@@ -75596,29 +75629,44 @@
       </c>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" spans="2:15" s="2" customFormat="1" ht="128" customHeight="1">
+    <row r="40" spans="2:15" s="2" customFormat="1" ht="128.1" customHeight="1">
       <c r="F40" s="34" t="s">
         <v>632</v>
       </c>
       <c r="H40" s="25"/>
     </row>
-    <row r="41" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="42" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="43" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="44" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="45" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="46" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="47" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="48" spans="2:15" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="49" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="50" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="51" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="52" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="53" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="54" s="4" customFormat="1" ht="28" customHeight="1"/>
-    <row r="55" s="4" customFormat="1" ht="28" customHeight="1"/>
+    <row r="41" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="42" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="43" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="44" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="45" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="46" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="47" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="48" spans="2:15" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="49" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="50" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="51" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="52" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="53" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="54" s="4" customFormat="1" ht="27.95" customHeight="1"/>
+    <row r="55" s="4" customFormat="1" ht="27.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="F24:G24"/>
@@ -75626,23 +75674,8 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
   </mergeCells>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -75662,9 +75695,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -75858,8 +75891,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
